--- a/GenReport/input/业绩周数据.xlsx
+++ b/GenReport/input/业绩周数据.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TFCode\TFInternShare\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TFCode\TFInternShare\GenReport\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6A833F-21D6-47B3-AABC-A36032A19C9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA32E7D-B6F9-4F3B-A979-4731D34A7012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="12980" windowHeight="15370" firstSheet="2" activeTab="5" xr2:uid="{43775D15-957C-4083-82AA-FDEFBBE44DA8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="5" xr2:uid="{43775D15-957C-4083-82AA-FDEFBBE44DA8}"/>
   </bookViews>
   <sheets>
     <sheet name="主观多头" sheetId="5" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="75">
   <si>
     <t>主观多头</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -252,10 +252,6 @@
     <t>中原财富-金石37期-天风量锐</t>
   </si>
   <si>
-    <t>--</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>上周涨跌幅</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -263,12 +259,6 @@
     <t>六禾谦行</t>
   </si>
   <si>
-    <t>--</t>
-  </si>
-  <si>
-    <t>思勰天行大数据选股二期</t>
-  </si>
-  <si>
     <t>今年最大回撤</t>
   </si>
   <si>
@@ -283,10 +273,6 @@
   </si>
   <si>
     <t>1.20运作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>量化多头</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -919,18 +905,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{495FB8C7-7498-4D51-828C-6B5C03EE491B}">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="10.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.25" bestFit="1" customWidth="1"/>
@@ -961,10 +946,10 @@
         <v>41</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
@@ -978,22 +963,22 @@
         <v>44225</v>
       </c>
       <c r="D2" s="5">
-        <v>0.60599999999999998</v>
+        <v>0.56599999999999995</v>
       </c>
       <c r="E2" s="5">
-        <v>0.60599999999999998</v>
+        <v>0.56599999999999995</v>
       </c>
       <c r="F2" s="6">
-        <v>4.0999999999999995E-3</v>
+        <v>-5.7000000000000002E-2</v>
       </c>
       <c r="G2" s="6">
-        <v>-0.15939999999999999</v>
+        <v>-5.7000000000000002E-2</v>
       </c>
       <c r="H2" s="6">
-        <v>0.28039999999999998</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="I2" s="7">
-        <v>-0.37229999999999996</v>
+        <v>-0.16739999999999999</v>
       </c>
       <c r="J2" s="16"/>
       <c r="K2" s="1"/>
@@ -1010,22 +995,22 @@
         <v>44288</v>
       </c>
       <c r="D3" s="5">
-        <v>0.85799999999999998</v>
+        <v>0.85199999999999998</v>
       </c>
       <c r="E3" s="5">
-        <v>0.85799999999999998</v>
+        <v>0.85199999999999998</v>
       </c>
       <c r="F3" s="6">
-        <v>-2.0499999999999997E-2</v>
+        <v>-2.18E-2</v>
       </c>
       <c r="G3" s="6">
-        <v>-0.10439999999999999</v>
+        <v>-2.18E-2</v>
       </c>
       <c r="H3" s="6">
-        <v>0.15429999999999999</v>
+        <v>2.18E-2</v>
       </c>
       <c r="I3" s="7">
-        <v>-0.1454</v>
+        <v>-9.0800000000000006E-2</v>
       </c>
       <c r="J3" s="16"/>
       <c r="K3" s="1"/>
@@ -1042,22 +1027,22 @@
         <v>44337</v>
       </c>
       <c r="D4" s="5">
-        <v>0.71199999999999997</v>
+        <v>0.70599999999999996</v>
       </c>
       <c r="E4" s="5">
-        <v>0.71199999999999997</v>
+        <v>0.70599999999999996</v>
       </c>
       <c r="F4" s="6">
-        <v>2.0099999999999996E-2</v>
+        <v>-2.2200000000000001E-2</v>
       </c>
       <c r="G4" s="6">
-        <v>-1.3899999999999999E-2</v>
+        <v>-2.2200000000000001E-2</v>
       </c>
       <c r="H4" s="6">
-        <v>9.74E-2</v>
+        <v>2.2200000000000001E-2</v>
       </c>
       <c r="I4" s="7">
-        <v>-0.23680000000000001</v>
+        <v>0</v>
       </c>
       <c r="J4" s="16"/>
       <c r="K4" s="1"/>
@@ -1074,22 +1059,22 @@
         <v>44375</v>
       </c>
       <c r="D5" s="5">
-        <v>0.74119999999999997</v>
+        <v>0.75149999999999995</v>
       </c>
       <c r="E5" s="5">
-        <v>0.74119999999999997</v>
+        <v>0.75149999999999995</v>
       </c>
       <c r="F5" s="6">
-        <v>-3.0999999999999999E-3</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="G5" s="6">
-        <v>-2.5499999999999998E-2</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="H5" s="6">
-        <v>9.4200000000000006E-2</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>-0.1779</v>
+        <v>-1.2500000000000001E-2</v>
       </c>
       <c r="J5" s="16"/>
       <c r="K5" s="1"/>
@@ -1106,22 +1091,22 @@
         <v>44396</v>
       </c>
       <c r="D6" s="5">
-        <v>0.94479999999999997</v>
+        <v>0.87039999999999995</v>
       </c>
       <c r="E6" s="5">
-        <v>0.94479999999999997</v>
+        <v>0.87039999999999995</v>
       </c>
       <c r="F6" s="6">
-        <v>-1.6299999999999999E-2</v>
+        <v>-6.6500000000000004E-2</v>
       </c>
       <c r="G6" s="6">
-        <v>-0.1409</v>
+        <v>-6.6500000000000004E-2</v>
       </c>
       <c r="H6" s="6">
-        <v>0.22239999999999999</v>
+        <v>6.6500000000000004E-2</v>
       </c>
       <c r="I6" s="7">
-        <v>-1.6E-2</v>
+        <v>-0.1522</v>
       </c>
       <c r="J6" s="16"/>
       <c r="K6" s="1"/>
@@ -1138,22 +1123,22 @@
         <v>44424</v>
       </c>
       <c r="D7" s="5">
-        <v>0.70730000000000004</v>
+        <v>0.70740000000000003</v>
       </c>
       <c r="E7" s="5">
-        <v>0.70730000000000004</v>
+        <v>0.70740000000000003</v>
       </c>
       <c r="F7" s="6">
-        <v>-2.9999999999999997E-4</v>
+        <v>-4.0000000000000002E-4</v>
       </c>
       <c r="G7" s="6">
-        <v>-5.0099999999999999E-2</v>
+        <v>-4.0000000000000002E-4</v>
       </c>
       <c r="H7" s="6">
-        <v>8.0799999999999997E-2</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="I7" s="7">
-        <v>-0.19239999999999999</v>
+        <v>-4.9599999999999998E-2</v>
       </c>
       <c r="J7" s="16"/>
       <c r="K7" s="1"/>
@@ -1170,22 +1155,22 @@
         <v>44770</v>
       </c>
       <c r="D8" s="5">
-        <v>0.74409999999999998</v>
+        <v>0.74560000000000004</v>
       </c>
       <c r="E8" s="5">
-        <v>0.74409999999999998</v>
+        <v>0.74560000000000004</v>
       </c>
       <c r="F8" s="6">
-        <v>-1.04E-2</v>
+        <v>-1.66E-2</v>
       </c>
       <c r="G8" s="6">
-        <v>-0.22109999999999999</v>
+        <v>-1.66E-2</v>
       </c>
       <c r="H8" s="6">
-        <v>0.26200000000000001</v>
+        <v>1.66E-2</v>
       </c>
       <c r="I8" s="7">
-        <v>-4.4699999999999997E-2</v>
+        <v>-0.20629999999999998</v>
       </c>
       <c r="J8" s="16"/>
       <c r="K8" s="1"/>
@@ -1202,22 +1187,22 @@
         <v>44804</v>
       </c>
       <c r="D9" s="5">
-        <v>0.77300000000000002</v>
+        <v>0.75600000000000001</v>
       </c>
       <c r="E9" s="5">
-        <v>0.77300000000000002</v>
+        <v>0.75600000000000001</v>
       </c>
       <c r="F9" s="6">
-        <v>-6.4000000000000003E-3</v>
+        <v>-1.95E-2</v>
       </c>
       <c r="G9" s="6">
-        <v>-0.15240000000000001</v>
+        <v>-1.95E-2</v>
       </c>
       <c r="H9" s="6">
-        <v>0.18459999999999999</v>
+        <v>1.95E-2</v>
       </c>
       <c r="I9" s="7">
-        <v>-8.8000000000000009E-2</v>
+        <v>-0.15460000000000002</v>
       </c>
       <c r="J9" s="16"/>
       <c r="K9" s="1"/>
@@ -1228,68 +1213,34 @@
     <row r="10" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A10" s="23"/>
       <c r="B10" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C10" s="4">
         <v>44992</v>
       </c>
       <c r="D10" s="5">
-        <v>0.87019999999999997</v>
+        <v>0.85980000000000001</v>
       </c>
       <c r="E10" s="5">
-        <v>0.87019999999999997</v>
+        <v>0.85980000000000001</v>
       </c>
       <c r="F10" s="6">
-        <v>-9.7000000000000003E-3</v>
+        <v>-8.5000000000000006E-3</v>
       </c>
       <c r="G10" s="6">
-        <v>-0.1298</v>
+        <v>-8.5000000000000006E-3</v>
       </c>
       <c r="H10" s="6">
-        <v>0.1615</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>71</v>
+        <v>8.5000000000000006E-3</v>
+      </c>
+      <c r="I10" s="7">
+        <v>-0.1328</v>
       </c>
       <c r="J10" s="16"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
-    </row>
-    <row r="11" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="C11" s="4">
-        <v>44463</v>
-      </c>
-      <c r="D11" s="5">
-        <v>0.97230000000000005</v>
-      </c>
-      <c r="E11" s="5">
-        <v>0.97230000000000005</v>
-      </c>
-      <c r="F11" s="6">
-        <v>1.06E-2</v>
-      </c>
-      <c r="G11" s="6">
-        <v>8.8599999999999998E-2</v>
-      </c>
-      <c r="H11" s="6">
-        <v>8.3299999999999999E-2</v>
-      </c>
-      <c r="I11" s="7">
-        <v>-8.5199999999999998E-2</v>
-      </c>
-      <c r="J11" s="16"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1297,7 +1248,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="F2:F10">
-    <cfRule type="dataBar" priority="5">
+    <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1305,13 +1256,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{C0D38E31-FADB-4C6D-8ED9-E70E2F357F37}</x14:id>
+          <x14:id>{9699A8E1-0D64-4382-9D4C-9206543A93F6}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G10">
-    <cfRule type="dataBar" priority="6">
+    <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1319,13 +1270,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{B2D08F3A-1CED-4B0D-A42D-4D038615A224}</x14:id>
+          <x14:id>{36AB4F04-9151-49C0-A83B-806C6CB3D571}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H10">
-    <cfRule type="dataBar" priority="7">
+    <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1333,13 +1284,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{CC17EA9B-794E-4A6A-B0F5-6157174A330D}</x14:id>
+          <x14:id>{326336BD-3782-4526-ACFE-2E66822F2E27}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I10">
-    <cfRule type="dataBar" priority="8">
+    <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1347,63 +1298,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{AAAEA2B8-7F60-464A-8538-4C9B29AF450F}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F11">
-    <cfRule type="dataBar" priority="9">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{89CB0C70-74AA-4CB7-986F-6C5D11BB2B04}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G11">
-    <cfRule type="dataBar" priority="10">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{55769C69-78EB-4425-9EEC-FE0692637211}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
-    <cfRule type="dataBar" priority="11">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{069FAF5D-1EC9-491E-A4EB-E07009B8B9E7}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I11">
-    <cfRule type="dataBar" priority="12">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4FE47D44-79FC-4F8E-8D26-15718A6E9F9C}</x14:id>
+          <x14:id>{049F35AA-CF75-4549-9BCD-A168FE079564}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1413,7 +1308,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{C0D38E31-FADB-4C6D-8ED9-E70E2F357F37}">
+          <x14:cfRule type="dataBar" id="{9699A8E1-0D64-4382-9D4C-9206543A93F6}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -1424,7 +1319,7 @@
           <xm:sqref>F2:F10</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{B2D08F3A-1CED-4B0D-A42D-4D038615A224}">
+          <x14:cfRule type="dataBar" id="{36AB4F04-9151-49C0-A83B-806C6CB3D571}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -1435,7 +1330,7 @@
           <xm:sqref>G2:G10</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{CC17EA9B-794E-4A6A-B0F5-6157174A330D}">
+          <x14:cfRule type="dataBar" id="{326336BD-3782-4526-ACFE-2E66822F2E27}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -1446,7 +1341,7 @@
           <xm:sqref>H2:H10</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{AAAEA2B8-7F60-464A-8538-4C9B29AF450F}">
+          <x14:cfRule type="dataBar" id="{049F35AA-CF75-4549-9BCD-A168FE079564}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -1455,50 +1350,6 @@
             </x14:dataBar>
           </x14:cfRule>
           <xm:sqref>I2:I10</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{89CB0C70-74AA-4CB7-986F-6C5D11BB2B04}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FF00B050"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>F11</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{55769C69-78EB-4425-9EEC-FE0692637211}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FF00B050"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G11</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{069FAF5D-1EC9-491E-A4EB-E07009B8B9E7}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H11</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4FE47D44-79FC-4F8E-8D26-15718A6E9F9C}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FF00B050"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>I11</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -1511,7 +1362,7 @@
   <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A2" sqref="A2:K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1545,7 +1396,7 @@
         <v>45275</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G1" s="18" t="s">
         <v>42</v>
@@ -1575,28 +1426,28 @@
         <v>44153</v>
       </c>
       <c r="D2" s="5">
-        <v>1.2030000000000001</v>
+        <v>1.1830000000000001</v>
       </c>
       <c r="E2" s="5">
-        <v>1.2030000000000001</v>
+        <v>1.1830000000000001</v>
       </c>
       <c r="F2" s="6">
-        <v>5.8999999999999999E-3</v>
+        <v>-1.1699999999999999E-2</v>
       </c>
       <c r="G2" s="6">
-        <v>1.46E-2</v>
+        <v>1.54E-2</v>
       </c>
       <c r="H2" s="6">
-        <v>5.62E-2</v>
+        <v>-1.1699999999999999E-2</v>
       </c>
       <c r="I2" s="6">
-        <v>0.13780000000000001</v>
+        <v>1.54E-2</v>
       </c>
       <c r="J2" s="6">
-        <v>2.1700000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="K2" s="7">
-        <v>0.14368700000000001</v>
+        <v>0.1366</v>
       </c>
       <c r="L2" s="17"/>
       <c r="N2">
@@ -1618,28 +1469,28 @@
         <v>44222</v>
       </c>
       <c r="D3" s="5">
-        <v>1.103</v>
+        <v>1.0820000000000001</v>
       </c>
       <c r="E3" s="5">
-        <v>1.103</v>
+        <v>1.0820000000000001</v>
       </c>
       <c r="F3" s="6">
-        <v>8.9999999999999998E-4</v>
+        <v>-2.35E-2</v>
       </c>
       <c r="G3" s="6">
-        <v>9.7000000000000003E-3</v>
+        <v>3.7000000000000002E-3</v>
       </c>
       <c r="H3" s="6">
-        <v>3.1800000000000002E-2</v>
+        <v>-2.35E-2</v>
       </c>
       <c r="I3" s="6">
-        <v>0.1084</v>
+        <v>3.7000000000000002E-3</v>
       </c>
       <c r="J3" s="6">
-        <v>2.4199999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="K3" s="7">
-        <v>0.15597800000000001</v>
+        <v>0.1177</v>
       </c>
       <c r="L3" s="17"/>
       <c r="N3">
@@ -1661,28 +1512,28 @@
         <v>44237</v>
       </c>
       <c r="D4" s="5">
-        <v>1.145</v>
+        <v>1.1339999999999999</v>
       </c>
       <c r="E4" s="5">
-        <v>1.145</v>
+        <v>1.1339999999999999</v>
       </c>
       <c r="F4" s="6">
-        <v>-5.1999999999999998E-3</v>
+        <v>-1.5600000000000001E-2</v>
       </c>
       <c r="G4" s="6">
-        <v>3.5999999999999999E-3</v>
+        <v>1.15E-2</v>
       </c>
       <c r="H4" s="6">
-        <v>1.6E-2</v>
+        <v>-1.5600000000000001E-2</v>
       </c>
       <c r="I4" s="6">
-        <v>9.1600000000000001E-2</v>
+        <v>1.15E-2</v>
       </c>
       <c r="J4" s="6">
-        <v>1.49E-2</v>
+        <v>0</v>
       </c>
       <c r="K4" s="7">
-        <v>0.19631199999999999</v>
+        <v>0.1023</v>
       </c>
       <c r="L4" s="17"/>
       <c r="N4">
@@ -1704,28 +1555,28 @@
         <v>44350</v>
       </c>
       <c r="D5" s="5">
-        <v>0.93859999999999999</v>
+        <v>0.91080000000000005</v>
       </c>
       <c r="E5" s="5">
-        <v>1.1284000000000001</v>
+        <v>1.1006</v>
       </c>
       <c r="F5" s="6">
-        <v>6.0000000000000001E-3</v>
+        <v>-2.1400000000000002E-2</v>
       </c>
       <c r="G5" s="6">
-        <v>1.47E-2</v>
+        <v>5.6999999999999993E-3</v>
       </c>
       <c r="H5" s="6">
-        <v>1.61E-2</v>
+        <v>-2.1400000000000002E-2</v>
       </c>
       <c r="I5" s="6">
-        <v>9.3299999999999994E-2</v>
+        <v>5.6999999999999993E-3</v>
       </c>
       <c r="J5" s="6">
-        <v>2.1299999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="K5" s="7">
-        <v>0.10640599999999999</v>
+        <v>8.8300000000000003E-2</v>
       </c>
       <c r="L5" s="17"/>
       <c r="N5">
@@ -1747,28 +1598,28 @@
         <v>44411</v>
       </c>
       <c r="D6" s="5">
-        <v>0.90529999999999999</v>
+        <v>0.88539999999999996</v>
       </c>
       <c r="E6" s="5">
-        <v>0.90529999999999999</v>
+        <v>0.88539999999999996</v>
       </c>
       <c r="F6" s="6">
-        <v>8.0000000000000004E-4</v>
+        <v>-1.83E-2</v>
       </c>
       <c r="G6" s="6">
-        <v>9.4999999999999998E-3</v>
+        <v>8.8000000000000005E-3</v>
       </c>
       <c r="H6" s="6">
-        <v>-1.7600000000000001E-2</v>
+        <v>-1.83E-2</v>
       </c>
       <c r="I6" s="6">
+        <v>8.8000000000000005E-3</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0</v>
+      </c>
+      <c r="K6" s="7">
         <v>5.6599999999999998E-2</v>
-      </c>
-      <c r="J6" s="6">
-        <v>1.6500000000000001E-2</v>
-      </c>
-      <c r="K6" s="7">
-        <v>0.116702</v>
       </c>
       <c r="L6" s="17"/>
       <c r="N6">
@@ -1790,28 +1641,28 @@
         <v>44482</v>
       </c>
       <c r="D7" s="5">
-        <v>0.89910000000000001</v>
+        <v>0.87909999999999999</v>
       </c>
       <c r="E7" s="5">
-        <v>0.89910000000000001</v>
+        <v>0.87909999999999999</v>
       </c>
       <c r="F7" s="6">
-        <v>-5.1000000000000004E-3</v>
+        <v>-2.3E-2</v>
       </c>
       <c r="G7" s="6">
-        <v>3.7000000000000002E-3</v>
+        <v>4.0999999999999995E-3</v>
       </c>
       <c r="H7" s="6">
-        <v>1.78E-2</v>
+        <v>-2.3E-2</v>
       </c>
       <c r="I7" s="6">
-        <v>9.4899999999999998E-2</v>
+        <v>4.0999999999999995E-3</v>
       </c>
       <c r="J7" s="6">
-        <v>2.3799999999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="K7" s="7">
-        <v>9.1229999999999992E-2</v>
+        <v>9.9700000000000011E-2</v>
       </c>
       <c r="L7" s="17"/>
       <c r="N7">
@@ -1833,28 +1684,28 @@
         <v>44495</v>
       </c>
       <c r="D8" s="5">
-        <v>1.0704</v>
+        <v>1.0406</v>
       </c>
       <c r="E8" s="5">
-        <v>1.1104000000000001</v>
+        <v>1.0806</v>
       </c>
       <c r="F8" s="6">
-        <v>-1.9E-3</v>
+        <v>-2.7300000000000001E-2</v>
       </c>
       <c r="G8" s="6">
-        <v>6.7000000000000002E-3</v>
+        <v>8.6E-3</v>
       </c>
       <c r="H8" s="6">
-        <v>0.11019999999999999</v>
+        <v>-2.7300000000000001E-2</v>
       </c>
       <c r="I8" s="6">
-        <v>0.16950000000000001</v>
+        <v>8.6E-3</v>
       </c>
       <c r="J8" s="6">
-        <v>1.04E-2</v>
+        <v>0</v>
       </c>
       <c r="K8" s="7">
-        <v>0.22339999999999999</v>
+        <v>0.18140000000000001</v>
       </c>
       <c r="L8" s="17"/>
       <c r="N8">
@@ -1876,28 +1727,28 @@
         <v>44516</v>
       </c>
       <c r="D9" s="5">
-        <v>0.71930000000000005</v>
+        <v>0.7177</v>
       </c>
       <c r="E9" s="5">
-        <v>0.71930000000000005</v>
+        <v>0.7177</v>
       </c>
       <c r="F9" s="6">
-        <v>7.000000000000001E-4</v>
+        <v>-2.3999999999999998E-3</v>
       </c>
       <c r="G9" s="6">
-        <v>9.2999999999999992E-3</v>
+        <v>3.3500000000000002E-2</v>
       </c>
       <c r="H9" s="6">
-        <v>-8.0000000000000002E-3</v>
+        <v>-2.3999999999999998E-3</v>
       </c>
       <c r="I9" s="6">
-        <v>2.8500000000000001E-2</v>
+        <v>3.3500000000000002E-2</v>
       </c>
       <c r="J9" s="6">
-        <v>0.1103</v>
+        <v>0</v>
       </c>
       <c r="K9" s="8">
-        <v>-0.10059999999999999</v>
+        <v>3.7900000000000003E-2</v>
       </c>
       <c r="L9" s="17"/>
       <c r="N9">
@@ -1919,28 +1770,28 @@
         <v>44522</v>
       </c>
       <c r="D10" s="5">
-        <v>0.91100000000000003</v>
+        <v>0.8881</v>
       </c>
       <c r="E10" s="5">
-        <v>0.91100000000000003</v>
+        <v>0.8881</v>
       </c>
       <c r="F10" s="6">
-        <v>-7.6E-3</v>
+        <v>-2.0499999999999997E-2</v>
       </c>
       <c r="G10" s="6">
-        <v>1.1000000000000001E-3</v>
+        <v>6.6E-3</v>
       </c>
       <c r="H10" s="6">
-        <v>3.78E-2</v>
+        <v>-2.0499999999999997E-2</v>
       </c>
       <c r="I10" s="6">
-        <v>0.1162</v>
+        <v>6.6E-3</v>
       </c>
       <c r="J10" s="6">
-        <v>1.6399999999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="K10" s="7">
-        <v>9.4883000000000009E-2</v>
+        <v>0.11509999999999999</v>
       </c>
       <c r="L10" s="17"/>
       <c r="N10">
@@ -1962,28 +1813,28 @@
         <v>44532</v>
       </c>
       <c r="D11" s="5">
-        <v>0.84130000000000005</v>
+        <v>0.81069999999999998</v>
       </c>
       <c r="E11" s="5">
-        <v>0.84130000000000005</v>
+        <v>0.81069999999999998</v>
       </c>
       <c r="F11" s="6">
-        <v>1.9E-3</v>
+        <v>-2.5499999999999998E-2</v>
       </c>
       <c r="G11" s="6">
-        <v>1.0700000000000001E-2</v>
+        <v>1.7000000000000001E-3</v>
       </c>
       <c r="H11" s="6">
-        <v>4.2099999999999999E-2</v>
+        <v>-2.5499999999999998E-2</v>
       </c>
       <c r="I11" s="6">
-        <v>0.12140000000000001</v>
+        <v>1.7000000000000001E-3</v>
       </c>
       <c r="J11" s="6">
-        <v>2.7000000000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="K11" s="8">
-        <v>1.6834000000000002E-2</v>
+        <v>0.1134</v>
       </c>
       <c r="L11" s="17"/>
       <c r="N11">
@@ -2005,28 +1856,28 @@
         <v>44586</v>
       </c>
       <c r="D12" s="5">
-        <v>0.8196</v>
+        <v>0.81279999999999997</v>
       </c>
       <c r="E12" s="5">
-        <v>0.8196</v>
+        <v>0.81279999999999997</v>
       </c>
       <c r="F12" s="6">
-        <v>-1.47E-2</v>
+        <v>-3.0200000000000001E-2</v>
       </c>
       <c r="G12" s="6">
-        <v>2.3999999999999998E-3</v>
+        <v>-5.0000000000000001E-4</v>
       </c>
       <c r="H12" s="6">
-        <v>-8.539999999999999E-2</v>
+        <v>-3.0200000000000001E-2</v>
       </c>
       <c r="I12" s="6">
-        <v>5.8000000000000003E-2</v>
+        <v>-5.0000000000000001E-4</v>
       </c>
       <c r="J12" s="6">
-        <v>2.2599999999999999E-2</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="K12" s="8">
-        <v>5.6500000000000002E-2</v>
+        <v>5.3600000000000002E-2</v>
       </c>
       <c r="L12" s="17"/>
       <c r="N12">
@@ -2048,28 +1899,28 @@
         <v>44782</v>
       </c>
       <c r="D13" s="5">
-        <v>0.9294</v>
+        <v>0.90600000000000003</v>
       </c>
       <c r="E13" s="5">
-        <v>0.9294</v>
+        <v>0.90600000000000003</v>
       </c>
       <c r="F13" s="6">
-        <v>-7.7000000000000002E-3</v>
+        <v>-2.0799999999999999E-2</v>
       </c>
       <c r="G13" s="6">
-        <v>1.1000000000000001E-3</v>
+        <v>6.4000000000000003E-3</v>
       </c>
       <c r="H13" s="6">
-        <v>2.86E-2</v>
+        <v>-2.0799999999999999E-2</v>
       </c>
       <c r="I13" s="6">
-        <v>0.10619999999999999</v>
+        <v>6.4000000000000003E-3</v>
       </c>
       <c r="J13" s="6">
-        <v>1.6E-2</v>
+        <v>0</v>
       </c>
       <c r="K13" s="8">
-        <v>-2.24E-2</v>
+        <v>0.10539999999999999</v>
       </c>
       <c r="L13" s="17"/>
       <c r="N13">
@@ -2091,32 +1942,32 @@
         <v>44908</v>
       </c>
       <c r="D14" s="5">
-        <v>0.93500000000000005</v>
+        <v>0.91100000000000003</v>
       </c>
       <c r="E14" s="5">
-        <v>0.93500000000000005</v>
+        <v>0.91100000000000003</v>
       </c>
       <c r="F14" s="6">
-        <v>1.1000000000000001E-3</v>
+        <v>-2.3599999999999999E-2</v>
       </c>
       <c r="G14" s="6">
-        <v>9.7999999999999997E-3</v>
+        <v>3.5999999999999999E-3</v>
       </c>
       <c r="H14" s="6">
-        <v>-6.5000000000000002E-2</v>
+        <v>-2.3599999999999999E-2</v>
       </c>
       <c r="I14" s="6">
-        <v>4.1300000000000003E-2</v>
+        <v>3.5999999999999999E-3</v>
       </c>
       <c r="J14" s="6">
-        <v>1.6299999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="K14" s="8">
-        <v>4.0800000000000003E-2</v>
+        <v>4.3099999999999999E-2</v>
       </c>
       <c r="L14" s="17"/>
       <c r="M14" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="N14">
         <v>13</v>
@@ -2137,32 +1988,32 @@
         <v>44918</v>
       </c>
       <c r="D15" s="5">
-        <v>1.0203</v>
+        <v>1.0026999999999999</v>
       </c>
       <c r="E15" s="5">
-        <v>1.0203</v>
+        <v>1.0026999999999999</v>
       </c>
       <c r="F15" s="6">
-        <v>6.0000000000000001E-3</v>
+        <v>-1.6500000000000001E-2</v>
       </c>
       <c r="G15" s="6">
-        <v>1.4800000000000001E-2</v>
+        <v>1.0700000000000001E-2</v>
       </c>
       <c r="H15" s="6">
-        <v>2.0400000000000001E-2</v>
+        <v>-1.6500000000000001E-2</v>
       </c>
       <c r="I15" s="6">
-        <v>0.1696</v>
+        <v>1.0700000000000001E-2</v>
       </c>
       <c r="J15" s="6">
-        <v>3.1300000000000001E-2</v>
-      </c>
-      <c r="K15" s="9" t="s">
-        <v>68</v>
+        <v>0</v>
+      </c>
+      <c r="K15" s="9">
+        <v>0.17319999999999999</v>
       </c>
       <c r="L15" s="17"/>
       <c r="M15" s="20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="N15">
         <v>14</v>
@@ -2183,28 +2034,28 @@
         <v>44943</v>
       </c>
       <c r="D16" s="5">
-        <v>0.92320000000000002</v>
+        <v>0.89980000000000004</v>
       </c>
       <c r="E16" s="5">
-        <v>0.92320000000000002</v>
+        <v>0.89980000000000004</v>
       </c>
       <c r="F16" s="6">
-        <v>8.0000000000000004E-4</v>
+        <v>-2.2799999999999997E-2</v>
       </c>
       <c r="G16" s="6">
-        <v>9.4999999999999998E-3</v>
+        <v>4.3E-3</v>
       </c>
       <c r="H16" s="6">
-        <v>-7.6799999999999993E-2</v>
+        <v>-2.2799999999999997E-2</v>
       </c>
       <c r="I16" s="6">
-        <v>4.1500000000000002E-2</v>
+        <v>4.3E-3</v>
       </c>
       <c r="J16" s="6">
-        <v>2.06E-2</v>
-      </c>
-      <c r="K16" s="9" t="s">
-        <v>68</v>
+        <v>0</v>
+      </c>
+      <c r="K16" s="9">
+        <v>4.2799999999999998E-2</v>
       </c>
       <c r="L16" s="17"/>
       <c r="N16">
@@ -2231,7 +2082,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4D432E4A-6D67-4C46-B58B-1AF6E94D54FC}</x14:id>
+          <x14:id>{AF031BED-5242-4E61-A90F-B1FE6AA7920E}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2245,7 +2096,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{152D2DB4-E20E-4891-8DB8-7CF1C6AF1730}</x14:id>
+          <x14:id>{F922B6E9-97C6-424B-A03C-0750712DDD43}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2259,7 +2110,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0408A1CE-2C36-45D9-9674-07983F2FF156}</x14:id>
+          <x14:id>{2DAF0DA2-FC47-4A85-8767-68CFC0E32688}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2273,7 +2124,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{53662AEB-0F30-4782-9812-A1257BFDA243}</x14:id>
+          <x14:id>{E6DEFE4B-45F3-49EF-AB78-16034735BD14}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2287,7 +2138,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{52ABA35A-7FF1-4710-ADDC-86DB83FF2F44}</x14:id>
+          <x14:id>{FED6D1DE-A5BB-4C38-8CF3-DF7552F49C2E}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2301,7 +2152,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{25C8A2C0-8CB9-460C-9BEC-0D44EAFCC337}</x14:id>
+          <x14:id>{0C02D641-5975-4E64-9F59-42C7521007FE}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2312,7 +2163,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4D432E4A-6D67-4C46-B58B-1AF6E94D54FC}">
+          <x14:cfRule type="dataBar" id="{AF031BED-5242-4E61-A90F-B1FE6AA7920E}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -2323,7 +2174,7 @@
           <xm:sqref>F2:F16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{152D2DB4-E20E-4891-8DB8-7CF1C6AF1730}">
+          <x14:cfRule type="dataBar" id="{F922B6E9-97C6-424B-A03C-0750712DDD43}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -2334,7 +2185,7 @@
           <xm:sqref>G2:G16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0408A1CE-2C36-45D9-9674-07983F2FF156}">
+          <x14:cfRule type="dataBar" id="{2DAF0DA2-FC47-4A85-8767-68CFC0E32688}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -2345,7 +2196,7 @@
           <xm:sqref>H2:H16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{53662AEB-0F30-4782-9812-A1257BFDA243}">
+          <x14:cfRule type="dataBar" id="{E6DEFE4B-45F3-49EF-AB78-16034735BD14}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -2356,7 +2207,7 @@
           <xm:sqref>I2:I16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{52ABA35A-7FF1-4710-ADDC-86DB83FF2F44}">
+          <x14:cfRule type="dataBar" id="{FED6D1DE-A5BB-4C38-8CF3-DF7552F49C2E}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -2367,7 +2218,7 @@
           <xm:sqref>J2:J16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{25C8A2C0-8CB9-460C-9BEC-0D44EAFCC337}">
+          <x14:cfRule type="dataBar" id="{0C02D641-5975-4E64-9F59-42C7521007FE}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -2388,7 +2239,7 @@
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A2" sqref="A2:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2426,13 +2277,13 @@
         <v>41</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="J1" s="19" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
@@ -2446,22 +2297,22 @@
         <v>44153</v>
       </c>
       <c r="D2" s="5">
-        <v>1.0229999999999999</v>
+        <v>1.042</v>
       </c>
       <c r="E2" s="5">
-        <v>1.2</v>
+        <v>1.2190000000000001</v>
       </c>
       <c r="F2" s="6">
-        <v>-3.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="G2" s="6">
-        <v>4.99E-2</v>
+        <v>0</v>
       </c>
       <c r="H2" s="6">
-        <v>2.0799999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="I2" s="7">
-        <v>7.4499999999999997E-2</v>
+        <v>6.9500000000000006E-2</v>
       </c>
       <c r="J2" s="16"/>
       <c r="K2" s="1"/>
@@ -2478,22 +2329,22 @@
         <v>44281</v>
       </c>
       <c r="D3" s="5">
-        <v>1.1532</v>
+        <v>1.1603000000000001</v>
       </c>
       <c r="E3" s="5">
-        <v>1.1532</v>
+        <v>1.1603000000000001</v>
       </c>
       <c r="F3" s="6">
-        <v>4.0999999999999995E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="G3" s="6">
-        <v>9.2899999999999996E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="H3" s="6">
-        <v>9.7999999999999997E-3</v>
+        <v>0</v>
       </c>
       <c r="I3" s="7">
-        <v>7.2700000000000001E-2</v>
+        <v>9.4100000000000003E-2</v>
       </c>
       <c r="J3" s="16"/>
       <c r="K3" s="1"/>
@@ -2510,22 +2361,22 @@
         <v>44336</v>
       </c>
       <c r="D4" s="5">
-        <v>1.0559000000000001</v>
+        <v>1.0471999999999999</v>
       </c>
       <c r="E4" s="5">
-        <v>1.0559000000000001</v>
+        <v>1.0471999999999999</v>
       </c>
       <c r="F4" s="6">
-        <v>5.5000000000000005E-3</v>
+        <v>2.0999999999999999E-3</v>
       </c>
       <c r="G4" s="6">
-        <v>8.2500000000000004E-2</v>
+        <v>2.0999999999999999E-3</v>
       </c>
       <c r="H4" s="6">
-        <v>1.0999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>4.1999999999999997E-3</v>
+        <v>7.1399999999999991E-2</v>
       </c>
       <c r="J4" s="16"/>
       <c r="K4" s="1"/>
@@ -2547,7 +2398,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{70DE8520-EDCD-4F13-81FA-C29D7B3D8DB8}</x14:id>
+          <x14:id>{335F5588-2117-400E-AEB6-7AB3C12E772D}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2561,7 +2412,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{D2F6C4C1-960C-47EF-AC83-D33CCFA83309}</x14:id>
+          <x14:id>{A1988D3E-0653-4C89-A5CD-6A5028B24EC7}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2575,7 +2426,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{C7813FC4-D91A-4313-AF5F-30F05003B79A}</x14:id>
+          <x14:id>{08482C9B-3C6A-48FF-A579-CC46959D8FAC}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2589,7 +2440,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{DE0F1B49-2517-4545-B102-C05E48711596}</x14:id>
+          <x14:id>{19D38D8A-4CAC-442C-B9FA-FD693CC79885}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2599,7 +2450,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{70DE8520-EDCD-4F13-81FA-C29D7B3D8DB8}">
+          <x14:cfRule type="dataBar" id="{335F5588-2117-400E-AEB6-7AB3C12E772D}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -2610,7 +2461,7 @@
           <xm:sqref>F2:F4</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{D2F6C4C1-960C-47EF-AC83-D33CCFA83309}">
+          <x14:cfRule type="dataBar" id="{A1988D3E-0653-4C89-A5CD-6A5028B24EC7}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -2621,7 +2472,7 @@
           <xm:sqref>G2:G4</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{C7813FC4-D91A-4313-AF5F-30F05003B79A}">
+          <x14:cfRule type="dataBar" id="{08482C9B-3C6A-48FF-A579-CC46959D8FAC}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -2632,7 +2483,7 @@
           <xm:sqref>H2:H4</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{DE0F1B49-2517-4545-B102-C05E48711596}">
+          <x14:cfRule type="dataBar" id="{19D38D8A-4CAC-442C-B9FA-FD693CC79885}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -2653,7 +2504,7 @@
   <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A2" sqref="A2:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2688,13 +2539,13 @@
         <v>41</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="J1" s="19" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="14.5" x14ac:dyDescent="0.3">
@@ -2708,22 +2559,22 @@
         <v>43872</v>
       </c>
       <c r="D2" s="5">
-        <v>1.0590999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="E2" s="5">
-        <v>1.0590999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="F2" s="6">
-        <v>8.9999999999999998E-4</v>
+        <v>-1.9E-3</v>
       </c>
       <c r="G2" s="6">
-        <v>-8.3499999999999991E-2</v>
+        <v>-1.9E-3</v>
       </c>
       <c r="H2" s="6">
-        <v>0.10949999999999999</v>
+        <v>1.9E-3</v>
       </c>
       <c r="I2" s="7">
-        <v>-0.12089999999999999</v>
+        <v>-8.1000000000000003E-2</v>
       </c>
       <c r="J2" s="16"/>
       <c r="K2" s="1"/>
@@ -2741,22 +2592,22 @@
         <v>44182</v>
       </c>
       <c r="D3" s="5">
-        <v>1.0145999999999999</v>
+        <v>1.0186999999999999</v>
       </c>
       <c r="E3" s="5">
-        <v>1.0496000000000001</v>
+        <v>1.0537000000000001</v>
       </c>
       <c r="F3" s="6">
-        <v>8.0000000000000004E-4</v>
+        <v>2.2000000000000001E-3</v>
       </c>
       <c r="G3" s="6">
-        <v>-9.300000000000001E-3</v>
+        <v>2.2000000000000001E-3</v>
       </c>
       <c r="H3" s="6">
-        <v>3.3000000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="I3" s="7">
-        <v>-6.3E-3</v>
+        <v>-7.4999999999999997E-3</v>
       </c>
       <c r="J3" s="16"/>
       <c r="K3" s="1"/>
@@ -2774,22 +2625,22 @@
         <v>44223</v>
       </c>
       <c r="D4" s="5">
-        <v>1.0221</v>
+        <v>1.0163</v>
       </c>
       <c r="E4" s="5">
-        <v>1.0221</v>
+        <v>1.0163</v>
       </c>
       <c r="F4" s="6">
-        <v>-2.0999999999999999E-3</v>
+        <v>-7.8000000000000005E-3</v>
       </c>
       <c r="G4" s="6">
-        <v>-4.8799999999999996E-2</v>
+        <v>-7.8000000000000005E-3</v>
       </c>
       <c r="H4" s="6">
-        <v>8.4400000000000003E-2</v>
+        <v>7.8000000000000005E-3</v>
       </c>
       <c r="I4" s="7">
-        <v>-0.09</v>
+        <v>-4.6699999999999998E-2</v>
       </c>
       <c r="J4" s="16"/>
       <c r="K4" s="1"/>
@@ -2807,22 +2658,22 @@
         <v>44453</v>
       </c>
       <c r="D5" s="5">
-        <v>0.98470000000000002</v>
+        <v>0.98640000000000005</v>
       </c>
       <c r="E5" s="5">
-        <v>0.98470000000000002</v>
+        <v>0.98640000000000005</v>
       </c>
       <c r="F5" s="6">
-        <v>2.0999999999999999E-3</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="G5" s="6">
-        <v>9.1999999999999998E-3</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="H5" s="6">
-        <v>2.6800000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>-2.7200000000000002E-2</v>
+        <v>1.0800000000000001E-2</v>
       </c>
       <c r="J5" s="16"/>
       <c r="K5" s="1"/>
@@ -2840,22 +2691,22 @@
         <v>44467</v>
       </c>
       <c r="D6" s="5">
-        <v>0.87990000000000002</v>
+        <v>0.87160000000000004</v>
       </c>
       <c r="E6" s="5">
-        <v>0.87990000000000002</v>
+        <v>0.87160000000000004</v>
       </c>
       <c r="F6" s="6">
-        <v>8.0000000000000004E-4</v>
+        <v>-1.1200000000000002E-2</v>
       </c>
       <c r="G6" s="6">
-        <v>-3.1200000000000002E-2</v>
+        <v>-1.1200000000000002E-2</v>
       </c>
       <c r="H6" s="6">
-        <v>4.8099999999999997E-2</v>
+        <v>1.1200000000000002E-2</v>
       </c>
       <c r="I6" s="7">
-        <v>-8.5600000000000009E-2</v>
+        <v>-2.9399999999999999E-2</v>
       </c>
       <c r="J6" s="16"/>
       <c r="K6" s="1"/>
@@ -2873,22 +2724,22 @@
         <v>44498</v>
       </c>
       <c r="D7" s="5">
-        <v>0.88819999999999999</v>
+        <v>0.88060000000000005</v>
       </c>
       <c r="E7" s="5">
-        <v>0.88819999999999999</v>
+        <v>0.88060000000000005</v>
       </c>
       <c r="F7" s="6">
-        <v>-2.0000000000000001E-4</v>
+        <v>-1.1899999999999999E-2</v>
       </c>
       <c r="G7" s="6">
-        <v>-4.1500000000000002E-2</v>
+        <v>-1.1899999999999999E-2</v>
       </c>
       <c r="H7" s="6">
-        <v>5.5800000000000002E-2</v>
+        <v>1.1899999999999999E-2</v>
       </c>
       <c r="I7" s="7">
-        <v>-7.2599999999999998E-2</v>
+        <v>-3.8300000000000001E-2</v>
       </c>
       <c r="J7" s="16"/>
       <c r="K7" s="1"/>
@@ -2906,22 +2757,22 @@
         <v>44481</v>
       </c>
       <c r="D8" s="5">
-        <v>0.87829999999999997</v>
+        <v>0.87590000000000001</v>
       </c>
       <c r="E8" s="5">
-        <v>0.87829999999999997</v>
+        <v>0.87590000000000001</v>
       </c>
       <c r="F8" s="6">
-        <v>-5.9999999999999995E-4</v>
+        <v>-6.7000000000000002E-3</v>
       </c>
       <c r="G8" s="6">
-        <v>-7.7499999999999999E-2</v>
+        <v>-6.7000000000000002E-3</v>
       </c>
       <c r="H8" s="6">
-        <v>9.9900000000000003E-2</v>
+        <v>6.7000000000000002E-3</v>
       </c>
       <c r="I8" s="7">
-        <v>-4.5400000000000003E-2</v>
+        <v>-7.3800000000000004E-2</v>
       </c>
       <c r="J8" s="16"/>
       <c r="K8" s="1"/>
@@ -2939,22 +2790,22 @@
         <v>44544</v>
       </c>
       <c r="D9" s="5">
-        <v>0.73580000000000001</v>
+        <v>0.73119999999999996</v>
       </c>
       <c r="E9" s="5">
-        <v>0.73580000000000001</v>
+        <v>0.73119999999999996</v>
       </c>
       <c r="F9" s="6">
-        <v>8.0000000000000004E-4</v>
+        <v>-1.7600000000000001E-2</v>
       </c>
       <c r="G9" s="6">
-        <v>-9.6099999999999991E-2</v>
+        <v>-1.7600000000000001E-2</v>
       </c>
       <c r="H9" s="6">
-        <v>0.13400000000000001</v>
+        <v>1.7600000000000001E-2</v>
       </c>
       <c r="I9" s="8">
-        <v>-0.19170000000000001</v>
+        <v>-8.5600000000000009E-2</v>
       </c>
       <c r="J9" s="16"/>
       <c r="K9" s="1"/>
@@ -2972,22 +2823,22 @@
         <v>44554</v>
       </c>
       <c r="D10" s="5">
-        <v>0.89970000000000006</v>
+        <v>0.89</v>
       </c>
       <c r="E10" s="5">
-        <v>0.89970000000000006</v>
+        <v>0.89</v>
       </c>
       <c r="F10" s="6">
-        <v>1.4000000000000002E-3</v>
+        <v>-1.09E-2</v>
       </c>
       <c r="G10" s="6">
-        <v>-3.5499999999999997E-2</v>
+        <v>-1.09E-2</v>
       </c>
       <c r="H10" s="6">
-        <v>5.8600000000000006E-2</v>
+        <v>1.09E-2</v>
       </c>
       <c r="I10" s="8">
-        <v>-6.8499999999999991E-2</v>
+        <v>-3.5400000000000001E-2</v>
       </c>
       <c r="J10" s="16"/>
       <c r="K10" s="1"/>
@@ -3005,22 +2856,22 @@
         <v>44573</v>
       </c>
       <c r="D11" s="5">
-        <v>0.95899999999999996</v>
+        <v>0.95320000000000005</v>
       </c>
       <c r="E11" s="5">
-        <v>0.95899999999999996</v>
+        <v>0.95320000000000005</v>
       </c>
       <c r="F11" s="6">
-        <v>-4.5999999999999999E-3</v>
+        <v>-1.04E-2</v>
       </c>
       <c r="G11" s="6">
-        <v>-2.5399999999999999E-2</v>
+        <v>-1.04E-2</v>
       </c>
       <c r="H11" s="6">
-        <v>4.6399999999999997E-2</v>
+        <v>1.04E-2</v>
       </c>
       <c r="I11" s="8">
-        <v>-1.6E-2</v>
+        <v>-2.1099999999999997E-2</v>
       </c>
       <c r="J11" s="16"/>
       <c r="K11" s="1"/>
@@ -3038,22 +2889,22 @@
         <v>44629</v>
       </c>
       <c r="D12" s="5">
-        <v>0.91790000000000005</v>
+        <v>0.90790000000000004</v>
       </c>
       <c r="E12" s="5">
-        <v>0.91790000000000005</v>
+        <v>0.90790000000000004</v>
       </c>
       <c r="F12" s="6">
-        <v>1.6000000000000001E-3</v>
+        <v>-1.5700000000000002E-2</v>
       </c>
       <c r="G12" s="6">
-        <v>-4.4600000000000001E-2</v>
+        <v>-1.5700000000000002E-2</v>
       </c>
       <c r="H12" s="6">
-        <v>7.3200000000000001E-2</v>
+        <v>1.5700000000000002E-2</v>
       </c>
       <c r="I12" s="8">
-        <v>-3.9300000000000002E-2</v>
+        <v>-3.9900000000000005E-2</v>
       </c>
       <c r="J12" s="16"/>
       <c r="K12" s="1"/>
@@ -3071,22 +2922,22 @@
         <v>44663</v>
       </c>
       <c r="D13" s="5">
-        <v>0.95</v>
+        <v>0.94799999999999995</v>
       </c>
       <c r="E13" s="5">
-        <v>0.95</v>
+        <v>0.94799999999999995</v>
       </c>
       <c r="F13" s="6">
-        <v>-2.3999999999999998E-3</v>
+        <v>-4.5000000000000005E-3</v>
       </c>
       <c r="G13" s="6">
-        <v>-4.1599999999999998E-2</v>
+        <v>-4.5000000000000005E-3</v>
       </c>
       <c r="H13" s="6">
-        <v>6.1899999999999997E-2</v>
+        <v>4.5000000000000005E-3</v>
       </c>
       <c r="I13" s="8">
-        <v>-8.8000000000000005E-3</v>
+        <v>-3.9199999999999999E-2</v>
       </c>
       <c r="J13" s="16"/>
       <c r="K13" s="1"/>
@@ -3109,7 +2960,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0324155A-F2A6-4778-B4A0-C9036EF81656}</x14:id>
+          <x14:id>{E309BF09-DBDC-4DDF-AFCD-875D722EE249}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3123,7 +2974,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{B2BFA2CA-530F-4DDB-B36E-FC4BDF3AA079}</x14:id>
+          <x14:id>{3F450877-167D-4A0D-83C5-4CA66AA6B519}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3137,7 +2988,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9015C921-FBA2-4F0C-9524-5E31FF882CB8}</x14:id>
+          <x14:id>{9B55F90A-EE04-4700-93E1-460F92B19268}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3151,7 +3002,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{D4F8D33C-D492-4E13-B6A1-1AD09780A87A}</x14:id>
+          <x14:id>{9B9FA2A1-6043-47B4-8D29-C64C1A32F6E3}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3161,7 +3012,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0324155A-F2A6-4778-B4A0-C9036EF81656}">
+          <x14:cfRule type="dataBar" id="{E309BF09-DBDC-4DDF-AFCD-875D722EE249}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3172,7 +3023,7 @@
           <xm:sqref>F2:F13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{B2BFA2CA-530F-4DDB-B36E-FC4BDF3AA079}">
+          <x14:cfRule type="dataBar" id="{3F450877-167D-4A0D-83C5-4CA66AA6B519}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3183,7 +3034,7 @@
           <xm:sqref>G2:G13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9015C921-FBA2-4F0C-9524-5E31FF882CB8}">
+          <x14:cfRule type="dataBar" id="{9B55F90A-EE04-4700-93E1-460F92B19268}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3194,7 +3045,7 @@
           <xm:sqref>H2:H13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{D4F8D33C-D492-4E13-B6A1-1AD09780A87A}">
+          <x14:cfRule type="dataBar" id="{9B9FA2A1-6043-47B4-8D29-C64C1A32F6E3}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3215,7 +3066,7 @@
   <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A2" sqref="A2:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3253,13 +3104,13 @@
         <v>41</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="J1" s="19" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="14.5" x14ac:dyDescent="0.3">
@@ -3273,22 +3124,22 @@
         <v>44390</v>
       </c>
       <c r="D2" s="12">
-        <v>1.1040000000000001</v>
+        <v>1.1068</v>
       </c>
       <c r="E2" s="12">
-        <v>1.1040000000000001</v>
+        <v>1.1068</v>
       </c>
       <c r="F2" s="13">
-        <v>5.9999999999999995E-4</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="G2" s="13">
-        <v>3.5200000000000002E-2</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="H2" s="13">
         <v>0</v>
       </c>
       <c r="I2" s="14">
-        <v>4.2599999999999999E-2</v>
+        <v>3.7200000000000004E-2</v>
       </c>
       <c r="J2" s="16"/>
       <c r="K2" s="1"/>
@@ -3306,22 +3157,22 @@
         <v>44610</v>
       </c>
       <c r="D3" s="12">
-        <v>1.0152000000000001</v>
+        <v>1.0183</v>
       </c>
       <c r="E3" s="12">
-        <v>1.0152000000000001</v>
+        <v>1.0183</v>
       </c>
       <c r="F3" s="13">
-        <v>5.0000000000000001E-4</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="G3" s="13">
-        <v>2.7000000000000001E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="H3" s="13">
-        <v>1.78E-2</v>
+        <v>0</v>
       </c>
       <c r="I3" s="14">
-        <v>1.2500000000000001E-2</v>
+        <v>4.7999999999999996E-3</v>
       </c>
       <c r="J3" s="16"/>
       <c r="K3" s="1"/>
@@ -3339,22 +3190,22 @@
         <v>43934</v>
       </c>
       <c r="D4" s="12">
-        <v>1.1289</v>
+        <v>1.1315</v>
       </c>
       <c r="E4" s="12">
-        <v>1.2857000000000001</v>
+        <v>1.2883</v>
       </c>
       <c r="F4" s="13">
-        <v>1.1000000000000001E-3</v>
+        <v>-3.4000000000000002E-3</v>
       </c>
       <c r="G4" s="13">
-        <v>6.1500000000000006E-2</v>
+        <v>-3.4000000000000002E-3</v>
       </c>
       <c r="H4" s="13">
-        <v>5.5000000000000005E-3</v>
+        <v>3.4000000000000002E-3</v>
       </c>
       <c r="I4" s="14">
-        <v>5.4100000000000002E-2</v>
+        <v>6.7500000000000004E-2</v>
       </c>
       <c r="J4" s="16"/>
       <c r="K4" s="1"/>
@@ -3372,22 +3223,22 @@
         <v>44511</v>
       </c>
       <c r="D5" s="12">
-        <v>1.0817000000000001</v>
+        <v>1.0784</v>
       </c>
       <c r="E5" s="12">
-        <v>1.0817000000000001</v>
+        <v>1.0784</v>
       </c>
       <c r="F5" s="13">
-        <v>2.3999999999999998E-3</v>
+        <v>-1.26E-2</v>
       </c>
       <c r="G5" s="13">
-        <v>5.04E-2</v>
+        <v>-1.26E-2</v>
       </c>
       <c r="H5" s="13">
-        <v>2.63E-2</v>
+        <v>1.26E-2</v>
       </c>
       <c r="I5" s="14">
-        <v>2.0400000000000001E-2</v>
+        <v>6.0599999999999994E-2</v>
       </c>
       <c r="J5" s="16"/>
       <c r="K5" s="1"/>
@@ -3405,22 +3256,22 @@
         <v>44551</v>
       </c>
       <c r="D6" s="12">
-        <v>1.0649999999999999</v>
+        <v>1.0112000000000001</v>
       </c>
       <c r="E6" s="12">
-        <v>1.1094999999999999</v>
+        <v>1.1116999999999999</v>
       </c>
       <c r="F6" s="13">
-        <v>4.0000000000000002E-4</v>
+        <v>-3.4999999999999996E-3</v>
       </c>
       <c r="G6" s="13">
-        <v>5.9900000000000002E-2</v>
+        <v>-3.4999999999999996E-3</v>
       </c>
       <c r="H6" s="13">
-        <v>6.7000000000000002E-3</v>
+        <v>3.4999999999999996E-3</v>
       </c>
       <c r="I6" s="14">
-        <v>4.9400000000000006E-2</v>
+        <v>6.5500000000000003E-2</v>
       </c>
       <c r="J6" s="16"/>
       <c r="K6" s="1"/>
@@ -3438,22 +3289,22 @@
         <v>43049</v>
       </c>
       <c r="D7" s="12">
-        <v>1.2350000000000001</v>
+        <v>1.2065999999999999</v>
       </c>
       <c r="E7" s="12">
-        <v>1.4168000000000001</v>
+        <v>1.4211</v>
       </c>
       <c r="F7" s="13">
-        <v>8.0000000000000004E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="G7" s="13">
-        <v>6.54E-2</v>
+        <v>1E-3</v>
       </c>
       <c r="H7" s="13">
-        <v>2.0000000000000001E-4</v>
+        <v>0</v>
       </c>
       <c r="I7" s="14">
-        <v>4.24E-2</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="J7" s="16"/>
       <c r="K7" s="1"/>
@@ -3471,22 +3322,22 @@
         <v>44441</v>
       </c>
       <c r="D8" s="12">
-        <v>1.012</v>
+        <v>1.0150999999999999</v>
       </c>
       <c r="E8" s="12">
-        <v>1.1226</v>
+        <v>1.1256999999999999</v>
       </c>
       <c r="F8" s="13">
-        <v>5.9999999999999995E-4</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="G8" s="13">
-        <v>6.4600000000000005E-2</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="H8" s="13">
         <v>0</v>
       </c>
       <c r="I8" s="14">
-        <v>4.1700000000000001E-2</v>
+        <v>6.7299999999999999E-2</v>
       </c>
       <c r="J8" s="16"/>
       <c r="K8" s="1"/>
@@ -3504,22 +3355,22 @@
         <v>44648</v>
       </c>
       <c r="D9" s="12">
-        <v>1.0989</v>
+        <v>1.1011</v>
       </c>
       <c r="E9" s="12">
-        <v>1.0989</v>
+        <v>1.1011</v>
       </c>
       <c r="F9" s="13">
-        <v>1E-3</v>
+        <v>-3.5999999999999999E-3</v>
       </c>
       <c r="G9" s="13">
-        <v>5.6900000000000006E-2</v>
+        <v>-3.5999999999999999E-3</v>
       </c>
       <c r="H9" s="13">
-        <v>5.8999999999999999E-3</v>
+        <v>3.5999999999999999E-3</v>
       </c>
       <c r="I9" s="14">
-        <v>3.9699999999999999E-2</v>
+        <v>6.2899999999999998E-2</v>
       </c>
       <c r="J9" s="16"/>
       <c r="K9" s="1"/>
@@ -3662,7 +3513,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{34F0936C-006D-4E27-970A-EB148BAC1D49}</x14:id>
+          <x14:id>{A7497D0E-ABB4-4548-A0C9-6921430DF30B}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3676,7 +3527,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8EB18048-303E-4D8E-A3D3-9B2DC4AECFAB}</x14:id>
+          <x14:id>{885C4C2D-A271-4933-9422-E187FC079565}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3690,7 +3541,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{45AEC3E1-E92F-4E17-8FDF-966B872743A6}</x14:id>
+          <x14:id>{CD8FA4F5-724B-4328-9B29-3C73FD0300DD}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3704,7 +3555,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{AB3422C3-0BA1-4FEF-AF1E-8D85A2E14586}</x14:id>
+          <x14:id>{CC8D4594-CF2C-4C35-B94C-35EE3279551D}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3714,7 +3565,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{34F0936C-006D-4E27-970A-EB148BAC1D49}">
+          <x14:cfRule type="dataBar" id="{A7497D0E-ABB4-4548-A0C9-6921430DF30B}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3725,7 +3576,7 @@
           <xm:sqref>F2:F9</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8EB18048-303E-4D8E-A3D3-9B2DC4AECFAB}">
+          <x14:cfRule type="dataBar" id="{885C4C2D-A271-4933-9422-E187FC079565}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3736,7 +3587,7 @@
           <xm:sqref>G2:G9</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{45AEC3E1-E92F-4E17-8FDF-966B872743A6}">
+          <x14:cfRule type="dataBar" id="{CD8FA4F5-724B-4328-9B29-3C73FD0300DD}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3747,7 +3598,7 @@
           <xm:sqref>H2:H9</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{AB3422C3-0BA1-4FEF-AF1E-8D85A2E14586}">
+          <x14:cfRule type="dataBar" id="{CC8D4594-CF2C-4C35-B94C-35EE3279551D}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3768,7 +3619,7 @@
   <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3805,13 +3656,13 @@
         <v>41</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="J1" s="19" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="14.5" x14ac:dyDescent="0.3">
@@ -3825,22 +3676,22 @@
         <v>43712</v>
       </c>
       <c r="D2" s="5">
-        <v>1.3657999999999999</v>
+        <v>1.359</v>
       </c>
       <c r="E2" s="5">
-        <v>1.3657999999999999</v>
+        <v>1.359</v>
       </c>
       <c r="F2" s="6">
-        <v>-1.3500000000000002E-2</v>
+        <v>-5.4000000000000003E-3</v>
       </c>
       <c r="G2" s="6">
-        <v>-3.4099999999999998E-2</v>
+        <v>-5.4000000000000003E-3</v>
       </c>
       <c r="H2" s="6">
-        <v>0.1231</v>
+        <v>5.4000000000000003E-3</v>
       </c>
       <c r="I2" s="7">
-        <v>6.7099999999999993E-2</v>
+        <v>-3.3700000000000001E-2</v>
       </c>
       <c r="J2" s="16"/>
       <c r="K2" s="1"/>
@@ -3857,22 +3708,22 @@
         <v>44642</v>
       </c>
       <c r="D3" s="5">
-        <v>0.92279999999999995</v>
+        <v>0.9254</v>
       </c>
       <c r="E3" s="5">
-        <v>0.92279999999999995</v>
+        <v>0.9254</v>
       </c>
       <c r="F3" s="6">
-        <v>-1.26E-2</v>
+        <v>-3.4000000000000002E-3</v>
       </c>
       <c r="G3" s="6">
-        <v>-3.0499999999999999E-2</v>
+        <v>-3.4000000000000002E-3</v>
       </c>
       <c r="H3" s="6">
-        <v>0.10390000000000001</v>
+        <v>3.4000000000000002E-3</v>
       </c>
       <c r="I3" s="7">
-        <v>-4.82E-2</v>
+        <v>-2.4399999999999998E-2</v>
       </c>
       <c r="J3" s="16"/>
       <c r="K3" s="1"/>
@@ -3891,22 +3742,22 @@
         <v>43581</v>
       </c>
       <c r="D4" s="5">
-        <v>0.89670000000000005</v>
+        <v>0.86899999999999999</v>
       </c>
       <c r="E4" s="5">
-        <v>1.1516</v>
+        <v>1.1238999999999999</v>
       </c>
       <c r="F4" s="6">
-        <v>-1.0200000000000001E-2</v>
+        <v>-4.3899999999999995E-2</v>
       </c>
       <c r="G4" s="6">
-        <v>-0.1051</v>
+        <v>-4.3899999999999995E-2</v>
       </c>
       <c r="H4" s="6">
-        <v>0.1759</v>
+        <v>4.3899999999999995E-2</v>
       </c>
       <c r="I4" s="7">
-        <v>-1.2500000000000001E-2</v>
+        <v>-9.3000000000000013E-2</v>
       </c>
       <c r="J4" s="16"/>
       <c r="K4" s="1"/>
@@ -3924,22 +3775,22 @@
         <v>44090</v>
       </c>
       <c r="D5" s="5">
-        <v>1.1205000000000001</v>
+        <v>1.0361</v>
       </c>
       <c r="E5" s="5">
-        <v>1.1205000000000001</v>
+        <v>1.0361</v>
       </c>
       <c r="F5" s="6">
-        <v>1.3500000000000002E-2</v>
+        <v>-3.7200000000000004E-2</v>
       </c>
       <c r="G5" s="6">
-        <v>6.2600000000000003E-2</v>
+        <v>-3.7200000000000004E-2</v>
       </c>
       <c r="H5" s="6">
-        <v>5.1500000000000004E-2</v>
+        <v>3.7200000000000004E-2</v>
       </c>
       <c r="I5" s="7">
-        <v>-1.8200000000000001E-2</v>
+        <v>2.0499999999999997E-2</v>
       </c>
       <c r="J5" s="16"/>
       <c r="K5" s="1"/>
@@ -3957,22 +3808,22 @@
         <v>44628</v>
       </c>
       <c r="D6" s="5">
-        <v>0.85189999999999999</v>
+        <v>0.84230000000000005</v>
       </c>
       <c r="E6" s="5">
-        <v>0.85189999999999999</v>
+        <v>0.84230000000000005</v>
       </c>
       <c r="F6" s="6">
-        <v>-1.54E-2</v>
+        <v>-4.4000000000000004E-2</v>
       </c>
       <c r="G6" s="6">
-        <v>-0.16519999999999999</v>
+        <v>-4.4000000000000004E-2</v>
       </c>
       <c r="H6" s="6">
-        <v>0.20680000000000001</v>
+        <v>4.4000000000000004E-2</v>
       </c>
       <c r="I6" s="7">
-        <v>2.0500000000000001E-2</v>
+        <v>-0.1366</v>
       </c>
       <c r="J6" s="16"/>
       <c r="K6" s="1"/>
@@ -3990,22 +3841,22 @@
         <v>44824</v>
       </c>
       <c r="D7" s="5">
-        <v>1.0630999999999999</v>
+        <v>1.0652999999999999</v>
       </c>
       <c r="E7" s="5">
-        <v>1.0630999999999999</v>
+        <v>1.0652999999999999</v>
       </c>
       <c r="F7" s="6">
-        <v>-3.3E-3</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="G7" s="6">
-        <v>4.0800000000000003E-2</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="H7" s="6">
-        <v>1.5900000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>2.1399999999999999E-2</v>
+        <v>4.0300000000000002E-2</v>
       </c>
       <c r="J7" s="16"/>
       <c r="K7" s="1"/>
@@ -4029,7 +3880,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{82C461CE-8A18-4223-8635-60F0A2B7BE87}</x14:id>
+          <x14:id>{C4074622-1E39-4E38-BF5D-6A97AA72C7CF}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4043,7 +3894,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{A77B7FFD-EF79-4415-B6F5-A0B095FCC09E}</x14:id>
+          <x14:id>{BC8BAB00-CF80-48E9-A8A7-A2A1F11DCC27}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4057,7 +3908,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{FCB4FAB6-6C32-4FE5-9BA1-B7E2E6994AD1}</x14:id>
+          <x14:id>{F19EF3D5-63EE-412A-9C5D-2D3A7F52699E}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4071,7 +3922,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{B9612F74-7D38-4E77-B3AC-A02BA85D8DAA}</x14:id>
+          <x14:id>{DC2A20BB-9A58-418F-91D5-62A14ED2E314}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4081,7 +3932,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{82C461CE-8A18-4223-8635-60F0A2B7BE87}">
+          <x14:cfRule type="dataBar" id="{C4074622-1E39-4E38-BF5D-6A97AA72C7CF}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4092,7 +3943,7 @@
           <xm:sqref>F2:F7</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{A77B7FFD-EF79-4415-B6F5-A0B095FCC09E}">
+          <x14:cfRule type="dataBar" id="{BC8BAB00-CF80-48E9-A8A7-A2A1F11DCC27}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4103,7 +3954,7 @@
           <xm:sqref>G2:G7</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{FCB4FAB6-6C32-4FE5-9BA1-B7E2E6994AD1}">
+          <x14:cfRule type="dataBar" id="{F19EF3D5-63EE-412A-9C5D-2D3A7F52699E}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4114,7 +3965,7 @@
           <xm:sqref>H2:H7</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{B9612F74-7D38-4E77-B3AC-A02BA85D8DAA}">
+          <x14:cfRule type="dataBar" id="{DC2A20BB-9A58-418F-91D5-62A14ED2E314}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
